--- a/STEPS_data_analysis/data_input/ISO_input_matrix.xlsx
+++ b/STEPS_data_analysis/data_input/ISO_input_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/cowanm_who_int/Documents/Desktop/example matrix and output docs/with LLM for review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1011" documentId="13_ncr:1_{F76E4335-EC2E-4A9C-9EDB-2AE87DDF3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D007CFC-3339-46FC-B604-597C400F749D}"/>
+  <xr:revisionPtr revIDLastSave="1016" documentId="13_ncr:1_{F76E4335-EC2E-4A9C-9EDB-2AE87DDF3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C14EED79-557F-4E98-8250-61E5240AFD3A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{56236E1D-2702-4F2C-A185-C8269303025C}"/>
+    <workbookView xWindow="3510" yWindow="585" windowWidth="24810" windowHeight="14895" xr2:uid="{56236E1D-2702-4F2C-A185-C8269303025C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="1738">
   <si>
     <t>Section</t>
   </si>
@@ -4003,9 +4003,6 @@
   </si>
   <si>
     <t>pefresult&lt;80</t>
-  </si>
-  <si>
-    <t>crd1=1 | crd3=1 | crd6=1 | crd10=1 | crd12=1</t>
   </si>
   <si>
     <t>under-weight 
@@ -6140,6 +6137,26 @@
          percentunrec_c=a12c/past7unrec,
          percentunrec_d=a12d/past7unrec,
          percentunrec_e=a12e/past7unrec)</t>
+  </si>
+  <si>
+    <t>Chronic Respiratory Diseases</t>
+  </si>
+  <si>
+    <t>pef_cln</t>
+  </si>
+  <si>
+    <t>m11;pef3max</t>
+  </si>
+  <si>
+    <t>data = data %&gt;% rowwise %&gt;%mutate(m11 = as.numeric(m11),
+    pef3max = as.numeric(pef3max),
+    pef_cln=ifelse(m11&gt;=100 &amp; m11&lt;=270 &amp; pef3max&gt;=60 &amp; pef3max&lt;=880,1,0))</t>
+  </si>
+  <si>
+    <t>(crd1=1 | crd3=1 | crd6=1 | crd10=1 | crd12=1) &amp; pef_cln=1</t>
+  </si>
+  <si>
+    <t>pefresult</t>
   </si>
 </sst>
 </file>
@@ -6376,7 +6393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6602,6 +6619,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6930,11 +6950,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8545CCE-7849-4608-BA53-0CA4FD51ED56}">
   <dimension ref="A1:X240"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C205" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B245" sqref="B245"/>
+      <selection pane="bottomRight" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7011,7 +7031,7 @@
         <v>518</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>503</v>
@@ -7020,22 +7040,22 @@
         <v>888</v>
       </c>
       <c r="S1" s="36" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T1" s="36" t="s">
         <v>1207</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="U1" s="37" t="s">
         <v>1208</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="36" t="s">
         <v>1209</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>1210</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>1211</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7178,7 +7198,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>28</v>
@@ -7216,7 +7236,7 @@
         <v>493</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>431</v>
@@ -7330,7 +7350,7 @@
         <v>1125</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>82</v>
@@ -7432,7 +7452,7 @@
         <v>513</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>113</v>
@@ -7459,7 +7479,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>82</v>
@@ -7482,7 +7502,7 @@
         <v>513</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>114</v>
@@ -7509,10 +7529,10 @@
         <v>22</v>
       </c>
       <c r="K12" s="27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L12" s="27" t="s">
         <v>1179</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>1180</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>82</v>
@@ -7530,22 +7550,22 @@
         <v>889</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T12" s="45" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="U12" s="46">
         <v>2</v>
       </c>
       <c r="V12" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W12" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W12" s="45" t="s">
+      <c r="X12" s="64" t="s">
         <v>1217</v>
-      </c>
-      <c r="X12" s="64" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7553,7 +7573,7 @@
         <v>513</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>115</v>
@@ -7580,7 +7600,7 @@
         <v>1084</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="M13" s="27" t="s">
         <v>82</v>
@@ -7602,7 +7622,7 @@
         <v>513</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>521</v>
@@ -7641,22 +7661,22 @@
         <v>889</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T14" s="65" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="U14" s="46">
         <v>3</v>
       </c>
       <c r="V14" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W14" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W14" s="45" t="s">
+      <c r="X14" s="64" t="s">
         <v>1217</v>
-      </c>
-      <c r="X14" s="64" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7664,7 +7684,7 @@
         <v>513</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>522</v>
@@ -7691,7 +7711,7 @@
         <v>37</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="M15" s="27" t="s">
         <v>82</v>
@@ -7714,7 +7734,7 @@
         <v>513</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>116</v>
@@ -7741,7 +7761,7 @@
         <v>34</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="M16" s="27" t="s">
         <v>82</v>
@@ -7769,7 +7789,7 @@
         <v>513</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>117</v>
@@ -7823,7 +7843,7 @@
         <v>513</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>755</v>
@@ -7850,7 +7870,7 @@
         <v>793</v>
       </c>
       <c r="K18" s="53" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L18" s="53"/>
       <c r="M18" s="53" t="s">
@@ -7877,7 +7897,7 @@
         <v>513</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>760</v>
@@ -7904,7 +7924,7 @@
         <v>763</v>
       </c>
       <c r="K19" s="53" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L19" s="53"/>
       <c r="M19" s="53" t="s">
@@ -7931,7 +7951,7 @@
         <v>513</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>118</v>
@@ -7958,7 +7978,7 @@
         <v>41</v>
       </c>
       <c r="K20" s="53" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L20" s="53"/>
       <c r="M20" s="53" t="s">
@@ -7989,7 +8009,7 @@
         <v>513</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>119</v>
@@ -8016,7 +8036,7 @@
         <v>43</v>
       </c>
       <c r="K21" s="53" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="L21" s="53"/>
       <c r="M21" s="53" t="s">
@@ -8032,22 +8052,22 @@
         <v>889</v>
       </c>
       <c r="S21" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T21" s="65" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="U21" s="46">
         <v>4</v>
       </c>
       <c r="V21" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W21" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W21" s="45" t="s">
-        <v>1217</v>
-      </c>
       <c r="X21" s="45" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8055,7 +8075,7 @@
         <v>513</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>120</v>
@@ -8082,7 +8102,7 @@
         <v>45</v>
       </c>
       <c r="K22" s="53" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L22" s="53"/>
       <c r="M22" s="53" t="s">
@@ -8104,7 +8124,7 @@
         <v>513</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>121</v>
@@ -8153,7 +8173,7 @@
         <v>513</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>122</v>
@@ -8202,7 +8222,7 @@
         <v>513</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>123</v>
@@ -8251,7 +8271,7 @@
         <v>513</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>124</v>
@@ -8290,22 +8310,22 @@
         <v>889</v>
       </c>
       <c r="S26" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T26" s="45" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U26" s="46">
         <v>1</v>
       </c>
       <c r="V26" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W26" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W26" s="45" t="s">
-        <v>1217</v>
-      </c>
       <c r="X26" s="45" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8313,7 +8333,7 @@
         <v>513</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>125</v>
@@ -8352,22 +8372,22 @@
         <v>889</v>
       </c>
       <c r="S27" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U27" s="46">
         <v>2</v>
       </c>
       <c r="V27" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W27" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W27" s="45" t="s">
-        <v>1217</v>
-      </c>
       <c r="X27" s="45" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8375,7 +8395,7 @@
         <v>513</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>126</v>
@@ -8431,7 +8451,7 @@
         <v>513</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>127</v>
@@ -8461,7 +8481,7 @@
         <v>1077</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M29" s="27" t="s">
         <v>82</v>
@@ -8473,22 +8493,22 @@
         <v>889</v>
       </c>
       <c r="S29" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T29" s="65" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="U29" s="46">
         <v>5</v>
       </c>
       <c r="V29" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W29" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W29" s="45" t="s">
-        <v>1217</v>
-      </c>
       <c r="X29" s="45" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8496,7 +8516,7 @@
         <v>513</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>128</v>
@@ -8520,7 +8540,7 @@
         <v>496</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K30" s="27" t="s">
         <v>1076</v>
@@ -8541,7 +8561,7 @@
         <v>513</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>129</v>
@@ -8586,7 +8606,7 @@
         <v>513</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>130</v>
@@ -8598,13 +8618,13 @@
         <v>448</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I32" s="27" t="s">
         <v>496</v>
@@ -8613,7 +8633,7 @@
         <v>54</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="M32" s="27" t="s">
         <v>82</v>
@@ -8631,7 +8651,7 @@
         <v>513</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>137</v>
@@ -8643,13 +8663,13 @@
         <v>448</v>
       </c>
       <c r="F33" s="30" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G33" s="30" t="s">
         <v>1228</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>1229</v>
-      </c>
       <c r="H33" s="30" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I33" s="27" t="s">
         <v>496</v>
@@ -8658,7 +8678,7 @@
         <v>91</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="M33" s="27" t="s">
         <v>82</v>
@@ -8670,22 +8690,22 @@
         <v>889</v>
       </c>
       <c r="S33" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T33" s="65" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="U33" s="46">
         <v>6</v>
       </c>
       <c r="V33" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W33" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W33" s="45" t="s">
-        <v>1217</v>
-      </c>
       <c r="X33" s="45" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8693,7 +8713,7 @@
         <v>513</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>131</v>
@@ -8738,7 +8758,7 @@
         <v>513</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>132</v>
@@ -8783,7 +8803,7 @@
         <v>513</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1123</v>
@@ -8813,7 +8833,7 @@
         <v>1077</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="M36" s="27" t="s">
         <v>82</v>
@@ -8825,22 +8845,22 @@
         <v>889</v>
       </c>
       <c r="S36" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T36" s="65" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="U36" s="46">
         <v>1</v>
       </c>
       <c r="V36" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W36" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W36" s="45" t="s">
-        <v>1217</v>
-      </c>
       <c r="X36" s="45" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8848,7 +8868,7 @@
         <v>513</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>133</v>
@@ -8887,22 +8907,22 @@
         <v>889</v>
       </c>
       <c r="S37" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T37" s="45" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="U37" s="46">
         <v>1</v>
       </c>
       <c r="V37" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W37" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W37" s="45" t="s">
-        <v>1217</v>
-      </c>
       <c r="X37" s="45" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8910,7 +8930,7 @@
         <v>513</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>138</v>
@@ -8949,22 +8969,22 @@
         <v>889</v>
       </c>
       <c r="S38" s="50" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="T38" s="45" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="U38" s="46">
         <v>2</v>
       </c>
       <c r="V38" s="45" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W38" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="W38" s="45" t="s">
-        <v>1217</v>
-      </c>
       <c r="X38" s="45" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8972,7 +8992,7 @@
         <v>513</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>139</v>
@@ -9017,22 +9037,22 @@
         <v>889</v>
       </c>
       <c r="S39" s="50" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="U39" s="46">
         <v>1</v>
       </c>
       <c r="V39" s="45" t="s">
+        <v>1234</v>
+      </c>
+      <c r="W39" s="45" t="s">
         <v>1235</v>
       </c>
-      <c r="W39" s="45" t="s">
+      <c r="X39" s="49" t="s">
         <v>1236</v>
-      </c>
-      <c r="X39" s="49" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9040,7 +9060,7 @@
         <v>513</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>140</v>
@@ -9085,7 +9105,7 @@
         <v>513</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>141</v>
@@ -9130,7 +9150,7 @@
         <v>513</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>142</v>
@@ -9175,7 +9195,7 @@
         <v>513</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>144</v>
@@ -9220,7 +9240,7 @@
         <v>513</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>1060</v>
@@ -9265,7 +9285,7 @@
         <v>513</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>1061</v>
@@ -9310,7 +9330,7 @@
         <v>513</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>1062</v>
@@ -9355,7 +9375,7 @@
         <v>513</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>1017</v>
@@ -9400,7 +9420,7 @@
         <v>513</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>1018</v>
@@ -9445,7 +9465,7 @@
         <v>513</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>1019</v>
@@ -9490,7 +9510,7 @@
         <v>513</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>145</v>
@@ -9535,7 +9555,7 @@
         <v>513</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>146</v>
@@ -9580,22 +9600,22 @@
         <v>889</v>
       </c>
       <c r="S51" s="50" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="T51" s="45" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="U51" s="46">
         <v>1</v>
       </c>
       <c r="V51" s="45" t="s">
+        <v>1234</v>
+      </c>
+      <c r="W51" s="45" t="s">
         <v>1235</v>
       </c>
-      <c r="W51" s="45" t="s">
-        <v>1236</v>
-      </c>
       <c r="X51" s="49" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9603,7 +9623,7 @@
         <v>513</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>147</v>
@@ -9652,7 +9672,7 @@
         <v>513</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>148</v>
@@ -9691,22 +9711,22 @@
         <v>889</v>
       </c>
       <c r="S53" s="50" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="T53" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="U53" s="46">
         <v>2</v>
       </c>
       <c r="V53" s="45" t="s">
+        <v>1234</v>
+      </c>
+      <c r="W53" s="45" t="s">
         <v>1235</v>
       </c>
-      <c r="W53" s="45" t="s">
-        <v>1236</v>
-      </c>
       <c r="X53" s="49" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9714,7 +9734,7 @@
         <v>513</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>1163</v>
@@ -9758,7 +9778,7 @@
         <v>513</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>149</v>
@@ -9782,10 +9802,10 @@
         <v>496</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M55" s="27" t="s">
         <v>82</v>
@@ -9802,31 +9822,31 @@
         <v>513</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C56" s="42" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F56" s="42" t="s">
         <v>1722</v>
       </c>
-      <c r="D56" s="42" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E56" s="42" t="s">
+      <c r="G56" s="42" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H56" s="42" t="s">
         <v>1239</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>1723</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>1724</v>
-      </c>
-      <c r="H56" s="42" t="s">
-        <v>1240</v>
       </c>
       <c r="I56" s="42" t="s">
         <v>496</v>
       </c>
       <c r="J56" s="42" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="K56" s="42" t="s">
         <v>1069</v>
@@ -9856,34 +9876,34 @@
         <v>513</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C57" s="42" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D57" s="42" t="s">
         <v>1242</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="E57" s="42" t="s">
         <v>1243</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="F57" s="42" t="s">
         <v>1244</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="G57" s="42" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H57" s="42" t="s">
         <v>1245</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>1725</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>1246</v>
       </c>
       <c r="I57" s="42" t="s">
         <v>496</v>
       </c>
       <c r="J57" s="42" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="K57" s="42" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L57" s="42"/>
       <c r="M57" s="42" t="s">
@@ -9893,7 +9913,7 @@
         <v>345</v>
       </c>
       <c r="O57" s="42" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P57" s="42"/>
       <c r="Q57" s="42"/>
@@ -9912,34 +9932,34 @@
         <v>513</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C58" s="42" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D58" s="42" t="s">
         <v>1249</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="E58" s="42" t="s">
         <v>1250</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="F58" s="42" t="s">
         <v>1251</v>
       </c>
-      <c r="F58" s="42" t="s">
+      <c r="G58" s="42" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H58" s="42" t="s">
         <v>1252</v>
-      </c>
-      <c r="G58" s="42" t="s">
-        <v>1727</v>
-      </c>
-      <c r="H58" s="42" t="s">
-        <v>1253</v>
       </c>
       <c r="I58" s="42" t="s">
         <v>496</v>
       </c>
       <c r="J58" s="42" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K58" s="42" t="s">
         <v>1254</v>
-      </c>
-      <c r="K58" s="42" t="s">
-        <v>1255</v>
       </c>
       <c r="L58" s="42"/>
       <c r="M58" s="42" t="s">
@@ -9949,7 +9969,7 @@
         <v>345</v>
       </c>
       <c r="O58" s="42" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="P58" s="42"/>
       <c r="Q58" s="42"/>
@@ -9968,34 +9988,34 @@
         <v>513</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C59" s="42" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D59" s="42" t="s">
         <v>1257</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="E59" s="42" t="s">
         <v>1258</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="F59" s="42" t="s">
         <v>1259</v>
       </c>
-      <c r="F59" s="42" t="s">
+      <c r="G59" s="42" t="s">
         <v>1260</v>
       </c>
-      <c r="G59" s="42" t="s">
+      <c r="H59" s="42" t="s">
         <v>1261</v>
-      </c>
-      <c r="H59" s="42" t="s">
-        <v>1262</v>
       </c>
       <c r="I59" s="42" t="s">
         <v>496</v>
       </c>
       <c r="J59" s="42" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K59" s="42" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L59" s="42"/>
       <c r="M59" s="42" t="s">
@@ -10022,34 +10042,34 @@
         <v>513</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C60" s="42" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D60" s="42" t="s">
         <v>1264</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="E60" s="42" t="s">
         <v>1265</v>
       </c>
-      <c r="E60" s="42" t="s">
+      <c r="F60" s="42" t="s">
         <v>1266</v>
       </c>
-      <c r="F60" s="42" t="s">
+      <c r="G60" s="42" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H60" s="42" t="s">
         <v>1267</v>
-      </c>
-      <c r="G60" s="42" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H60" s="42" t="s">
-        <v>1268</v>
       </c>
       <c r="I60" s="42" t="s">
         <v>496</v>
       </c>
       <c r="J60" s="42" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="K60" s="42" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L60" s="42"/>
       <c r="M60" s="42" t="s">
@@ -10076,34 +10096,34 @@
         <v>513</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C61" s="42" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D61" s="42" t="s">
         <v>1270</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="E61" s="42" t="s">
         <v>1271</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="F61" s="42" t="s">
         <v>1272</v>
       </c>
-      <c r="F61" s="42" t="s">
+      <c r="G61" s="42" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H61" s="42" t="s">
         <v>1273</v>
-      </c>
-      <c r="G61" s="42" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H61" s="42" t="s">
-        <v>1274</v>
       </c>
       <c r="I61" s="42" t="s">
         <v>496</v>
       </c>
       <c r="J61" s="42" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K61" s="42" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L61" s="42"/>
       <c r="M61" s="42" t="s">
@@ -10130,34 +10150,34 @@
         <v>513</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C62" s="42" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D62" s="42" t="s">
         <v>1276</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="E62" s="42" t="s">
         <v>1277</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="F62" s="42" t="s">
         <v>1278</v>
       </c>
-      <c r="F62" s="42" t="s">
+      <c r="G62" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="G62" s="42" t="s">
+      <c r="H62" s="42" t="s">
         <v>1280</v>
-      </c>
-      <c r="H62" s="42" t="s">
-        <v>1281</v>
       </c>
       <c r="I62" s="42" t="s">
         <v>496</v>
       </c>
       <c r="J62" s="42" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K62" s="42" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L62" s="42"/>
       <c r="M62" s="42" t="s">
@@ -10223,22 +10243,22 @@
         <v>889</v>
       </c>
       <c r="S63" s="50" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="T63" s="45" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="U63" s="46">
         <v>1</v>
       </c>
       <c r="V63" s="45" t="s">
+        <v>1287</v>
+      </c>
+      <c r="W63" s="45" t="s">
         <v>1288</v>
       </c>
-      <c r="W63" s="45" t="s">
+      <c r="X63" s="45" t="s">
         <v>1289</v>
-      </c>
-      <c r="X63" s="45" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10285,22 +10305,22 @@
         <v>889</v>
       </c>
       <c r="S64" s="50" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="T64" s="45" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="U64" s="46">
         <v>2</v>
       </c>
       <c r="V64" s="45" t="s">
+        <v>1287</v>
+      </c>
+      <c r="W64" s="45" t="s">
         <v>1288</v>
       </c>
-      <c r="W64" s="45" t="s">
+      <c r="X64" s="45" t="s">
         <v>1289</v>
-      </c>
-      <c r="X64" s="45" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10347,22 +10367,22 @@
         <v>889</v>
       </c>
       <c r="S65" s="50" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="T65" s="45" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="U65" s="46">
         <v>3</v>
       </c>
       <c r="V65" s="45" t="s">
+        <v>1287</v>
+      </c>
+      <c r="W65" s="45" t="s">
         <v>1288</v>
       </c>
-      <c r="W65" s="45" t="s">
+      <c r="X65" s="45" t="s">
         <v>1289</v>
-      </c>
-      <c r="X65" s="45" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10409,22 +10429,22 @@
         <v>889</v>
       </c>
       <c r="S66" s="50" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="T66" s="45" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="U66" s="46">
         <v>4</v>
       </c>
       <c r="V66" s="45" t="s">
+        <v>1287</v>
+      </c>
+      <c r="W66" s="45" t="s">
         <v>1288</v>
       </c>
-      <c r="W66" s="45" t="s">
+      <c r="X66" s="45" t="s">
         <v>1289</v>
-      </c>
-      <c r="X66" s="45" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10569,22 +10589,22 @@
         <v>889</v>
       </c>
       <c r="S69" s="50" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="T69" s="45" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="U69" s="46">
         <v>5</v>
       </c>
       <c r="V69" s="45" t="s">
+        <v>1287</v>
+      </c>
+      <c r="W69" s="45" t="s">
         <v>1288</v>
       </c>
-      <c r="W69" s="45" t="s">
+      <c r="X69" s="45" t="s">
         <v>1289</v>
-      </c>
-      <c r="X69" s="45" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10634,22 +10654,22 @@
         <v>889</v>
       </c>
       <c r="S70" s="50" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="T70" s="45" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="U70" s="46">
         <v>1</v>
       </c>
       <c r="V70" s="45" t="s">
+        <v>1291</v>
+      </c>
+      <c r="W70" s="45" t="s">
         <v>1292</v>
       </c>
-      <c r="W70" s="45" t="s">
-        <v>1293</v>
-      </c>
       <c r="X70" s="49" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10813,7 +10833,7 @@
         <v>169</v>
       </c>
       <c r="K74" s="27" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="M74" s="27" t="s">
         <v>82</v>
@@ -10857,7 +10877,7 @@
         <v>170</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="M75" s="27" t="s">
         <v>82</v>
@@ -11182,7 +11202,7 @@
         <v>563</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J83" s="27" t="s">
         <v>1042</v>
@@ -11206,22 +11226,22 @@
         <v>889</v>
       </c>
       <c r="S83" s="50" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="T83" s="45" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="U83" s="46">
         <v>2</v>
       </c>
       <c r="V83" s="45" t="s">
+        <v>1291</v>
+      </c>
+      <c r="W83" s="45" t="s">
         <v>1292</v>
       </c>
-      <c r="W83" s="45" t="s">
-        <v>1293</v>
-      </c>
       <c r="X83" s="49" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="84" spans="1:24" s="31" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11250,7 +11270,7 @@
         <v>563</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J84" s="31" t="s">
         <v>1046</v>
@@ -11294,7 +11314,7 @@
         <v>563</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J85" s="31" t="s">
         <v>1050</v>
@@ -11338,7 +11358,7 @@
         <v>563</v>
       </c>
       <c r="I86" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J86" s="31" t="s">
         <v>1054</v>
@@ -11382,7 +11402,7 @@
         <v>563</v>
       </c>
       <c r="I87" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J87" s="31" t="s">
         <v>1058</v>
@@ -11426,7 +11446,7 @@
         <v>563</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J88" s="31" t="s">
         <v>1042</v>
@@ -11470,7 +11490,7 @@
         <v>563</v>
       </c>
       <c r="I89" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J89" s="31" t="s">
         <v>1046</v>
@@ -11514,7 +11534,7 @@
         <v>563</v>
       </c>
       <c r="I90" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J90" s="31" t="s">
         <v>1050</v>
@@ -11558,7 +11578,7 @@
         <v>563</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J91" s="31" t="s">
         <v>1054</v>
@@ -11602,7 +11622,7 @@
         <v>563</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J92" s="31" t="s">
         <v>1058</v>
@@ -11625,7 +11645,7 @@
         <v>513</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C93" s="27" t="s">
         <v>240</v>
@@ -11670,22 +11690,22 @@
         <v>889</v>
       </c>
       <c r="S93" s="45" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="T93" s="45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U93" s="46">
         <v>1</v>
       </c>
       <c r="V93" s="45" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="W93" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="X93" s="45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11693,7 +11713,7 @@
         <v>513</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C94" s="27" t="s">
         <v>241</v>
@@ -11720,7 +11740,7 @@
         <v>222</v>
       </c>
       <c r="K94" s="27" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="M94" s="27" t="s">
         <v>82</v>
@@ -11738,7 +11758,7 @@
         <v>513</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C95" s="27" t="s">
         <v>245</v>
@@ -11783,7 +11803,7 @@
         <v>513</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C96" s="27" t="s">
         <v>246</v>
@@ -11822,22 +11842,22 @@
         <v>889</v>
       </c>
       <c r="S96" s="45" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="T96" s="45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U96" s="46">
         <v>2</v>
       </c>
       <c r="V96" s="45" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="W96" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="X96" s="45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11845,7 +11865,7 @@
         <v>513</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C97" s="27" t="s">
         <v>247</v>
@@ -11890,7 +11910,7 @@
         <v>513</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C98" s="27" t="s">
         <v>248</v>
@@ -11935,7 +11955,7 @@
         <v>513</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C99" s="27" t="s">
         <v>249</v>
@@ -11980,7 +12000,7 @@
         <v>513</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C100" s="27" t="s">
         <v>250</v>
@@ -12025,7 +12045,7 @@
         <v>513</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C101" s="27" t="s">
         <v>251</v>
@@ -12070,7 +12090,7 @@
         <v>513</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C102" s="27" t="s">
         <v>252</v>
@@ -12115,7 +12135,7 @@
         <v>513</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C103" s="27" t="s">
         <v>253</v>
@@ -12160,7 +12180,7 @@
         <v>513</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C104" s="27" t="s">
         <v>254</v>
@@ -12205,7 +12225,7 @@
         <v>513</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C105" s="27" t="s">
         <v>255</v>
@@ -12250,22 +12270,22 @@
         <v>889</v>
       </c>
       <c r="S105" s="45" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="T105" s="45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U105" s="46">
         <v>3</v>
       </c>
       <c r="V105" s="45" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="W105" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="X105" s="45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12273,7 +12293,7 @@
         <v>513</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C106" s="27" t="s">
         <v>256</v>
@@ -12300,7 +12320,7 @@
         <v>235</v>
       </c>
       <c r="K106" s="27" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M106" s="27" t="s">
         <v>82</v>
@@ -12312,22 +12332,22 @@
         <v>889</v>
       </c>
       <c r="S106" s="45" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="T106" s="45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U106" s="46">
         <v>4</v>
       </c>
       <c r="V106" s="45" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="W106" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="X106" s="45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12335,7 +12355,7 @@
         <v>513</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C107" s="27" t="s">
         <v>257</v>
@@ -12380,22 +12400,22 @@
         <v>889</v>
       </c>
       <c r="S107" s="45" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="T107" s="45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U107" s="46">
         <v>5</v>
       </c>
       <c r="V107" s="45" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="W107" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="X107" s="45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12403,7 +12423,7 @@
         <v>513</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C108" s="27" t="s">
         <v>258</v>
@@ -12447,16 +12467,16 @@
         <v>513</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C109" s="27" t="s">
         <v>271</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F109" s="27" t="s">
         <v>713</v>
@@ -12491,7 +12511,7 @@
         <v>513</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C110" s="27" t="s">
         <v>272</v>
@@ -12535,7 +12555,7 @@
         <v>513</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C111" s="27" t="s">
         <v>273</v>
@@ -12579,7 +12599,7 @@
         <v>513</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C112" s="27" t="s">
         <v>274</v>
@@ -12623,16 +12643,16 @@
         <v>513</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C113" s="27" t="s">
         <v>296</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F113" s="27" t="s">
         <v>714</v>
@@ -12667,7 +12687,7 @@
         <v>513</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C114" s="27" t="s">
         <v>516</v>
@@ -12711,7 +12731,7 @@
         <v>513</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C115" s="27" t="s">
         <v>517</v>
@@ -12755,7 +12775,7 @@
         <v>513</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C116" s="27" t="s">
         <v>297</v>
@@ -12799,7 +12819,7 @@
         <v>513</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C117" s="27" t="s">
         <v>298</v>
@@ -12843,16 +12863,16 @@
         <v>513</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C118" s="27" t="s">
         <v>299</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F118" s="27" t="s">
         <v>715</v>
@@ -12887,7 +12907,7 @@
         <v>513</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C119" s="27" t="s">
         <v>300</v>
@@ -12931,7 +12951,7 @@
         <v>513</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C120" s="27" t="s">
         <v>301</v>
@@ -12975,7 +12995,7 @@
         <v>513</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C121" s="72" t="s">
         <v>302</v>
@@ -13019,7 +13039,7 @@
         <v>513</v>
       </c>
       <c r="B122" s="72" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C122" s="72" t="s">
         <v>311</v>
@@ -13061,19 +13081,19 @@
         <v>421</v>
       </c>
       <c r="T122" s="49" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="U122" s="74">
         <v>1</v>
       </c>
       <c r="V122" s="73" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W122" s="73" t="s">
         <v>1589</v>
       </c>
-      <c r="W122" s="73" t="s">
-        <v>1590</v>
-      </c>
       <c r="X122" s="73" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13081,7 +13101,7 @@
         <v>513</v>
       </c>
       <c r="B123" s="72" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C123" s="27" t="s">
         <v>312</v>
@@ -13125,7 +13145,7 @@
         <v>513</v>
       </c>
       <c r="B124" s="72" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C124" s="27" t="s">
         <v>313</v>
@@ -13169,7 +13189,7 @@
         <v>513</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C125" s="27" t="s">
         <v>324</v>
@@ -13208,22 +13228,22 @@
         <v>889</v>
       </c>
       <c r="S125" s="73" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T125" s="73" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="U125" s="74">
         <v>1</v>
       </c>
       <c r="V125" s="73" t="s">
+        <v>1671</v>
+      </c>
+      <c r="W125" s="73" t="s">
         <v>1672</v>
       </c>
-      <c r="W125" s="73" t="s">
-        <v>1673</v>
-      </c>
       <c r="X125" s="73" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13231,7 +13251,7 @@
         <v>513</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C126" s="27" t="s">
         <v>325</v>
@@ -13270,22 +13290,22 @@
         <v>889</v>
       </c>
       <c r="S126" s="73" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T126" s="73" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="U126" s="74">
         <v>1</v>
       </c>
       <c r="V126" s="73" t="s">
+        <v>1671</v>
+      </c>
+      <c r="W126" s="73" t="s">
         <v>1672</v>
       </c>
-      <c r="W126" s="73" t="s">
-        <v>1673</v>
-      </c>
       <c r="X126" s="73" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13293,7 +13313,7 @@
         <v>513</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C127" s="27" t="s">
         <v>326</v>
@@ -13332,22 +13352,22 @@
         <v>889</v>
       </c>
       <c r="S127" s="73" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T127" s="73" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="U127" s="74">
         <v>2</v>
       </c>
       <c r="V127" s="73" t="s">
+        <v>1671</v>
+      </c>
+      <c r="W127" s="73" t="s">
         <v>1672</v>
       </c>
-      <c r="W127" s="73" t="s">
-        <v>1673</v>
-      </c>
       <c r="X127" s="73" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13355,7 +13375,7 @@
         <v>513</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C128" s="27" t="s">
         <v>327</v>
@@ -13394,22 +13414,22 @@
         <v>889</v>
       </c>
       <c r="S128" s="73" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T128" s="73" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="U128" s="74">
         <v>3</v>
       </c>
       <c r="V128" s="73" t="s">
+        <v>1671</v>
+      </c>
+      <c r="W128" s="73" t="s">
         <v>1672</v>
       </c>
-      <c r="W128" s="73" t="s">
-        <v>1673</v>
-      </c>
       <c r="X128" s="73" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13417,7 +13437,7 @@
         <v>513</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C129" s="27" t="s">
         <v>328</v>
@@ -13456,22 +13476,22 @@
         <v>889</v>
       </c>
       <c r="S129" s="73" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T129" s="73" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="U129" s="74">
         <v>1</v>
       </c>
       <c r="V129" s="73" t="s">
+        <v>1671</v>
+      </c>
+      <c r="W129" s="73" t="s">
         <v>1672</v>
       </c>
-      <c r="W129" s="73" t="s">
-        <v>1673</v>
-      </c>
       <c r="X129" s="73" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13479,7 +13499,7 @@
         <v>513</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C130" s="27" t="s">
         <v>329</v>
@@ -13518,22 +13538,22 @@
         <v>889</v>
       </c>
       <c r="S130" s="73" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T130" s="73" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="U130" s="74">
         <v>1</v>
       </c>
       <c r="V130" s="73" t="s">
+        <v>1671</v>
+      </c>
+      <c r="W130" s="73" t="s">
         <v>1672</v>
       </c>
-      <c r="W130" s="73" t="s">
-        <v>1673</v>
-      </c>
       <c r="X130" s="73" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13541,7 +13561,7 @@
         <v>513</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C131" s="27" t="s">
         <v>366</v>
@@ -13580,22 +13600,22 @@
         <v>889</v>
       </c>
       <c r="S131" s="73" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="T131" s="73" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="U131" s="74">
         <v>4</v>
       </c>
       <c r="V131" s="73" t="s">
+        <v>1671</v>
+      </c>
+      <c r="W131" s="73" t="s">
         <v>1672</v>
       </c>
-      <c r="W131" s="73" t="s">
-        <v>1673</v>
-      </c>
       <c r="X131" s="73" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -13603,7 +13623,7 @@
         <v>513</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>807</v>
@@ -13612,7 +13632,7 @@
         <v>809</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F132" s="33" t="s">
         <v>361</v>
@@ -13646,22 +13666,22 @@
         <v>889</v>
       </c>
       <c r="S132" s="73" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="T132" s="73" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="U132" s="74">
         <v>1</v>
       </c>
       <c r="V132" s="73" t="s">
+        <v>1685</v>
+      </c>
+      <c r="W132" s="73" t="s">
         <v>1686</v>
       </c>
-      <c r="W132" s="73" t="s">
-        <v>1687</v>
-      </c>
       <c r="X132" s="73" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -13669,7 +13689,7 @@
         <v>513</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>808</v>
@@ -13678,7 +13698,7 @@
         <v>809</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F133" s="33" t="s">
         <v>361</v>
@@ -13721,31 +13741,31 @@
         <v>513</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C134" s="33" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D134" s="33" t="s">
         <v>1312</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="E134" s="33" t="s">
         <v>1313</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="F134" s="33" t="s">
         <v>1314</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="G134" s="33" t="s">
         <v>1315</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="H134" s="33" t="s">
         <v>1316</v>
-      </c>
-      <c r="H134" s="33" t="s">
-        <v>1317</v>
       </c>
       <c r="I134" s="33" t="s">
         <v>496</v>
       </c>
       <c r="J134" s="33" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="K134" s="33" t="s">
         <v>345</v>
@@ -13775,34 +13795,34 @@
         <v>513</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C135" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D135" s="33" t="s">
         <v>1319</v>
       </c>
-      <c r="D135" s="33" t="s">
+      <c r="E135" s="33" t="s">
         <v>1320</v>
       </c>
-      <c r="E135" s="33" t="s">
+      <c r="F135" s="33" t="s">
         <v>1321</v>
       </c>
-      <c r="F135" s="33" t="s">
+      <c r="G135" s="33" t="s">
         <v>1322</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="H135" s="33" t="s">
         <v>1323</v>
-      </c>
-      <c r="H135" s="33" t="s">
-        <v>1324</v>
       </c>
       <c r="I135" s="33" t="s">
         <v>496</v>
       </c>
       <c r="J135" s="33" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K135" s="33" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="L135" s="33"/>
       <c r="M135" s="33" t="s">
@@ -13829,34 +13849,34 @@
         <v>513</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C136" s="33" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D136" s="33" t="s">
         <v>1326</v>
       </c>
-      <c r="D136" s="33" t="s">
+      <c r="E136" s="33" t="s">
         <v>1327</v>
       </c>
-      <c r="E136" s="33" t="s">
+      <c r="F136" s="33" t="s">
         <v>1328</v>
       </c>
-      <c r="F136" s="33" t="s">
+      <c r="G136" s="33" t="s">
         <v>1329</v>
       </c>
-      <c r="G136" s="33" t="s">
+      <c r="H136" s="33" t="s">
         <v>1330</v>
-      </c>
-      <c r="H136" s="33" t="s">
-        <v>1331</v>
       </c>
       <c r="I136" s="33" t="s">
         <v>496</v>
       </c>
       <c r="J136" s="33" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K136" s="33" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="L136" s="33"/>
       <c r="M136" s="33" t="s">
@@ -13883,34 +13903,34 @@
         <v>513</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C137" s="33" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D137" s="33" t="s">
         <v>1333</v>
       </c>
-      <c r="D137" s="33" t="s">
+      <c r="E137" s="33" t="s">
         <v>1334</v>
       </c>
-      <c r="E137" s="33" t="s">
+      <c r="F137" s="33" t="s">
         <v>1335</v>
       </c>
-      <c r="F137" s="33" t="s">
+      <c r="G137" s="33" t="s">
         <v>1336</v>
       </c>
-      <c r="G137" s="33" t="s">
+      <c r="H137" s="33" t="s">
         <v>1337</v>
-      </c>
-      <c r="H137" s="33" t="s">
-        <v>1338</v>
       </c>
       <c r="I137" s="33" t="s">
         <v>496</v>
       </c>
       <c r="J137" s="33" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K137" s="33" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="L137" s="33"/>
       <c r="M137" s="33" t="s">
@@ -13937,34 +13957,34 @@
         <v>513</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C138" s="33" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D138" s="33" t="s">
         <v>1340</v>
       </c>
-      <c r="D138" s="33" t="s">
+      <c r="E138" s="33" t="s">
         <v>1341</v>
       </c>
-      <c r="E138" s="33" t="s">
+      <c r="F138" s="33" t="s">
         <v>1342</v>
       </c>
-      <c r="F138" s="33" t="s">
+      <c r="G138" s="33" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H138" s="33" t="s">
         <v>1343</v>
-      </c>
-      <c r="G138" s="33" t="s">
-        <v>1337</v>
-      </c>
-      <c r="H138" s="33" t="s">
-        <v>1344</v>
       </c>
       <c r="I138" s="33" t="s">
         <v>496</v>
       </c>
       <c r="J138" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K138" s="33" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="L138" s="33"/>
       <c r="M138" s="33" t="s">
@@ -13991,34 +14011,34 @@
         <v>513</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C139" s="33" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D139" s="33" t="s">
         <v>1346</v>
       </c>
-      <c r="D139" s="33" t="s">
+      <c r="E139" s="33" t="s">
         <v>1347</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="F139" s="33" t="s">
         <v>1348</v>
       </c>
-      <c r="F139" s="33" t="s">
+      <c r="G139" s="33" t="s">
         <v>1349</v>
       </c>
-      <c r="G139" s="33" t="s">
+      <c r="H139" s="33" t="s">
         <v>1350</v>
-      </c>
-      <c r="H139" s="33" t="s">
-        <v>1351</v>
       </c>
       <c r="I139" s="33" t="s">
         <v>496</v>
       </c>
       <c r="J139" s="33" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="K139" s="33" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L139" s="33"/>
       <c r="M139" s="33" t="s">
@@ -14045,34 +14065,34 @@
         <v>513</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C140" s="33" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D140" s="33" t="s">
         <v>1353</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="E140" s="33" t="s">
         <v>1354</v>
       </c>
-      <c r="E140" s="33" t="s">
+      <c r="F140" s="33" t="s">
         <v>1355</v>
       </c>
-      <c r="F140" s="33" t="s">
+      <c r="G140" s="33" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H140" s="33" t="s">
         <v>1356</v>
-      </c>
-      <c r="G140" s="33" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H140" s="33" t="s">
-        <v>1357</v>
       </c>
       <c r="I140" s="33" t="s">
         <v>496</v>
       </c>
       <c r="J140" s="33" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="K140" s="33" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L140" s="33"/>
       <c r="M140" s="33" t="s">
@@ -14099,34 +14119,34 @@
         <v>513</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C141" s="33" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D141" s="33" t="s">
         <v>1359</v>
       </c>
-      <c r="D141" s="33" t="s">
+      <c r="E141" s="33" t="s">
         <v>1360</v>
       </c>
-      <c r="E141" s="33" t="s">
+      <c r="F141" s="33" t="s">
         <v>1361</v>
       </c>
-      <c r="F141" s="33" t="s">
+      <c r="G141" s="33" t="s">
         <v>1362</v>
       </c>
-      <c r="G141" s="33" t="s">
+      <c r="H141" s="33" t="s">
         <v>1363</v>
-      </c>
-      <c r="H141" s="33" t="s">
-        <v>1364</v>
       </c>
       <c r="I141" s="33" t="s">
         <v>496</v>
       </c>
       <c r="J141" s="33" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="K141" s="33" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="L141" s="33"/>
       <c r="M141" s="33" t="s">
@@ -14153,7 +14173,7 @@
         <v>513</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C142" s="34" t="s">
         <v>893</v>
@@ -14162,7 +14182,7 @@
         <v>894</v>
       </c>
       <c r="E142" s="34" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F142" s="34" t="s">
         <v>895</v>
@@ -14199,7 +14219,7 @@
         <v>513</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C143" s="34" t="s">
         <v>899</v>
@@ -14208,7 +14228,7 @@
         <v>900</v>
       </c>
       <c r="E143" s="34" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F143" s="34" t="s">
         <v>901</v>
@@ -14245,7 +14265,7 @@
         <v>513</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C144" s="34" t="s">
         <v>904</v>
@@ -14254,7 +14274,7 @@
         <v>905</v>
       </c>
       <c r="E144" s="34" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F144" s="34" t="s">
         <v>906</v>
@@ -14293,16 +14313,16 @@
         <v>513</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C145" s="34" t="s">
         <v>911</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F145" s="34" t="s">
         <v>906</v>
@@ -14341,16 +14361,16 @@
         <v>513</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C146" s="34" t="s">
         <v>915</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E146" s="34" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F146" s="34" t="s">
         <v>906</v>
@@ -14389,16 +14409,16 @@
         <v>513</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C147" s="34" t="s">
         <v>918</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E147" s="34" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F147" s="34" t="s">
         <v>919</v>
@@ -14435,16 +14455,16 @@
         <v>513</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C148" s="34" t="s">
         <v>923</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E148" s="34" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F148" s="34" t="s">
         <v>919</v>
@@ -14481,7 +14501,7 @@
         <v>513</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C149" s="34" t="s">
         <v>926</v>
@@ -14490,7 +14510,7 @@
         <v>927</v>
       </c>
       <c r="E149" s="34" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F149" s="34" t="s">
         <v>928</v>
@@ -14527,7 +14547,7 @@
         <v>513</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C150" s="34" t="s">
         <v>931</v>
@@ -14536,7 +14556,7 @@
         <v>932</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F150" s="34" t="s">
         <v>933</v>
@@ -14573,29 +14593,31 @@
         <v>513</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C151" s="34" t="s">
         <v>1165</v>
       </c>
       <c r="D151" s="34" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E151" s="34" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F151" s="34" t="s">
         <v>1166</v>
       </c>
       <c r="G151" s="34" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H151" s="34"/>
+        <v>1736</v>
+      </c>
+      <c r="H151" s="34" t="s">
+        <v>1737</v>
+      </c>
       <c r="I151" s="34" t="s">
         <v>501</v>
       </c>
       <c r="J151" s="34" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="K151" s="34"/>
       <c r="L151" s="34"/>
@@ -14617,34 +14639,34 @@
         <v>513</v>
       </c>
       <c r="B152" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C152" s="55" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D152" s="55" t="s">
         <v>1366</v>
       </c>
-      <c r="D152" s="55" t="s">
+      <c r="E152" s="55" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F152" s="55" t="s">
         <v>1367</v>
       </c>
-      <c r="E152" s="55" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F152" s="55" t="s">
+      <c r="G152" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H152" s="55" t="s">
         <v>1368</v>
-      </c>
-      <c r="G152" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H152" s="55" t="s">
-        <v>1369</v>
       </c>
       <c r="I152" s="55" t="s">
         <v>496</v>
       </c>
       <c r="J152" s="55" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="K152" s="55" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L152" s="55"/>
       <c r="M152" s="55" t="s">
@@ -14665,22 +14687,22 @@
         <v>513</v>
       </c>
       <c r="B153" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C153" s="55" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D153" s="55" t="s">
         <v>1371</v>
       </c>
-      <c r="D153" s="55" t="s">
+      <c r="E153" s="55" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F153" s="55" t="s">
         <v>1372</v>
       </c>
-      <c r="E153" s="55" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F153" s="55" t="s">
+      <c r="G153" s="55" t="s">
         <v>1373</v>
-      </c>
-      <c r="G153" s="55" t="s">
-        <v>1374</v>
       </c>
       <c r="H153" s="55" t="s">
         <v>940</v>
@@ -14689,10 +14711,10 @@
         <v>496</v>
       </c>
       <c r="J153" s="55" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="K153" s="55" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="L153" s="55"/>
       <c r="M153" s="55" t="s">
@@ -14708,22 +14730,22 @@
         <v>889</v>
       </c>
       <c r="S153" s="73" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="T153" s="73" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="U153" s="74">
         <v>1</v>
       </c>
       <c r="V153" s="73" t="s">
+        <v>1692</v>
+      </c>
+      <c r="W153" s="73" t="s">
         <v>1693</v>
       </c>
-      <c r="W153" s="73" t="s">
+      <c r="X153" s="73" t="s">
         <v>1694</v>
-      </c>
-      <c r="X153" s="73" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="154" spans="1:24" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14731,22 +14753,22 @@
         <v>513</v>
       </c>
       <c r="B154" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C154" s="55" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D154" s="55" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E154" s="55" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F154" s="55" t="s">
         <v>1376</v>
       </c>
-      <c r="D154" s="55" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E154" s="55" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F154" s="55" t="s">
-        <v>1377</v>
-      </c>
       <c r="G154" s="55" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H154" s="55" t="s">
         <v>940</v>
@@ -14755,7 +14777,7 @@
         <v>496</v>
       </c>
       <c r="J154" s="55" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K154" s="55"/>
       <c r="L154" s="55"/>
@@ -14772,22 +14794,22 @@
         <v>889</v>
       </c>
       <c r="S154" s="73" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="T154" s="73" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="U154" s="74">
         <v>2</v>
       </c>
       <c r="V154" s="73" t="s">
+        <v>1692</v>
+      </c>
+      <c r="W154" s="73" t="s">
         <v>1693</v>
       </c>
-      <c r="W154" s="73" t="s">
+      <c r="X154" s="73" t="s">
         <v>1694</v>
-      </c>
-      <c r="X154" s="73" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="155" spans="1:24" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14795,31 +14817,31 @@
         <v>513</v>
       </c>
       <c r="B155" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C155" s="55" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D155" s="55" t="s">
         <v>1379</v>
       </c>
-      <c r="D155" s="55" t="s">
+      <c r="E155" s="55" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F155" s="55" t="s">
         <v>1380</v>
       </c>
-      <c r="E155" s="55" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F155" s="55" t="s">
+      <c r="G155" s="55" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H155" s="55" t="s">
         <v>1381</v>
-      </c>
-      <c r="G155" s="55" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H155" s="55" t="s">
-        <v>1382</v>
       </c>
       <c r="I155" s="55" t="s">
         <v>496</v>
       </c>
       <c r="J155" s="55" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K155" s="55"/>
       <c r="L155" s="55"/>
@@ -14836,22 +14858,22 @@
         <v>889</v>
       </c>
       <c r="S155" s="73" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="T155" s="73" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="U155" s="74">
         <v>3</v>
       </c>
       <c r="V155" s="73" t="s">
+        <v>1692</v>
+      </c>
+      <c r="W155" s="73" t="s">
         <v>1693</v>
       </c>
-      <c r="W155" s="73" t="s">
+      <c r="X155" s="73" t="s">
         <v>1694</v>
-      </c>
-      <c r="X155" s="73" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="156" spans="1:24" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -14859,22 +14881,22 @@
         <v>513</v>
       </c>
       <c r="B156" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C156" s="55" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D156" s="55" t="s">
         <v>1384</v>
       </c>
-      <c r="D156" s="55" t="s">
+      <c r="E156" s="55" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F156" s="55" t="s">
         <v>1385</v>
       </c>
-      <c r="E156" s="55" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F156" s="55" t="s">
+      <c r="G156" s="55" t="s">
         <v>1386</v>
-      </c>
-      <c r="G156" s="55" t="s">
-        <v>1387</v>
       </c>
       <c r="H156" s="55" t="s">
         <v>941</v>
@@ -14883,10 +14905,10 @@
         <v>496</v>
       </c>
       <c r="J156" s="55" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K156" s="55" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="L156" s="55"/>
       <c r="M156" s="55" t="s">
@@ -14913,34 +14935,34 @@
         <v>513</v>
       </c>
       <c r="B157" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C157" s="55" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D157" s="55" t="s">
         <v>1389</v>
       </c>
-      <c r="D157" s="55" t="s">
+      <c r="E157" s="55" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F157" s="55" t="s">
         <v>1390</v>
       </c>
-      <c r="E157" s="55" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F157" s="55" t="s">
+      <c r="G157" s="55" t="s">
         <v>1391</v>
       </c>
-      <c r="G157" s="55" t="s">
+      <c r="H157" s="55" t="s">
         <v>1392</v>
-      </c>
-      <c r="H157" s="55" t="s">
-        <v>1393</v>
       </c>
       <c r="I157" s="55" t="s">
         <v>496</v>
       </c>
       <c r="J157" s="55" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="K157" s="55" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="L157" s="55"/>
       <c r="M157" s="55" t="s">
@@ -14967,34 +14989,34 @@
         <v>513</v>
       </c>
       <c r="B158" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C158" s="55" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D158" s="55" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E158" s="55" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F158" s="55" t="s">
         <v>1395</v>
       </c>
-      <c r="E158" s="55" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F158" s="55" t="s">
+      <c r="G158" s="55" t="s">
         <v>1396</v>
       </c>
-      <c r="G158" s="55" t="s">
+      <c r="H158" s="55" t="s">
         <v>1397</v>
-      </c>
-      <c r="H158" s="55" t="s">
-        <v>1398</v>
       </c>
       <c r="I158" s="55" t="s">
         <v>496</v>
       </c>
       <c r="J158" s="55" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K158" s="55" t="s">
         <v>1399</v>
-      </c>
-      <c r="K158" s="55" t="s">
-        <v>1400</v>
       </c>
       <c r="L158" s="55"/>
       <c r="M158" s="55" t="s">
@@ -15021,31 +15043,31 @@
         <v>513</v>
       </c>
       <c r="B159" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C159" s="55" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D159" s="55" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E159" s="55" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F159" s="55" t="s">
         <v>1401</v>
       </c>
-      <c r="E159" s="55" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F159" s="55" t="s">
+      <c r="G159" s="55" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H159" s="55" t="s">
         <v>1402</v>
-      </c>
-      <c r="G159" s="55" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H159" s="55" t="s">
-        <v>1403</v>
       </c>
       <c r="I159" s="55" t="s">
         <v>496</v>
       </c>
       <c r="J159" s="55" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="K159" s="55"/>
       <c r="L159" s="55"/>
@@ -15073,31 +15095,31 @@
         <v>513</v>
       </c>
       <c r="B160" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C160" s="55" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D160" s="55" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E160" s="55" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F160" s="55" t="s">
         <v>1405</v>
       </c>
-      <c r="E160" s="55" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F160" s="55" t="s">
+      <c r="G160" s="55" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H160" s="55" t="s">
         <v>1406</v>
-      </c>
-      <c r="G160" s="55" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H160" s="55" t="s">
-        <v>1407</v>
       </c>
       <c r="I160" s="55" t="s">
         <v>496</v>
       </c>
       <c r="J160" s="55" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="K160" s="55"/>
       <c r="L160" s="55"/>
@@ -15125,31 +15147,31 @@
         <v>513</v>
       </c>
       <c r="B161" s="55" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C161" s="55" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D161" s="55" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E161" s="55" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F161" s="55" t="s">
         <v>1409</v>
       </c>
-      <c r="E161" s="55" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F161" s="55" t="s">
+      <c r="G161" s="55" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H161" s="55" t="s">
         <v>1410</v>
-      </c>
-      <c r="G161" s="55" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H161" s="55" t="s">
-        <v>1411</v>
       </c>
       <c r="I161" s="55" t="s">
         <v>496</v>
       </c>
       <c r="J161" s="55" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="K161" s="55"/>
       <c r="L161" s="55"/>
@@ -15177,7 +15199,7 @@
         <v>513</v>
       </c>
       <c r="B162" s="61" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C162" s="61" t="s">
         <v>836</v>
@@ -15186,7 +15208,7 @@
         <v>877</v>
       </c>
       <c r="E162" s="61" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F162" s="61" t="s">
         <v>837</v>
@@ -15223,7 +15245,7 @@
         <v>513</v>
       </c>
       <c r="B163" s="61" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C163" s="61" t="s">
         <v>840</v>
@@ -15232,7 +15254,7 @@
         <v>1154</v>
       </c>
       <c r="E163" s="61" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F163" s="61" t="s">
         <v>841</v>
@@ -15271,7 +15293,7 @@
         <v>513</v>
       </c>
       <c r="B164" s="61" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C164" s="61" t="s">
         <v>1026</v>
@@ -15280,7 +15302,7 @@
         <v>1154</v>
       </c>
       <c r="E164" s="61" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F164" s="61" t="s">
         <v>1027</v>
@@ -15319,7 +15341,7 @@
         <v>513</v>
       </c>
       <c r="B165" s="61" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C165" s="61" t="s">
         <v>844</v>
@@ -15328,7 +15350,7 @@
         <v>1157</v>
       </c>
       <c r="E165" s="61" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F165" s="61" t="s">
         <v>845</v>
@@ -15343,7 +15365,7 @@
         <v>496</v>
       </c>
       <c r="J165" s="61" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K165" s="61" t="s">
         <v>1158</v>
@@ -15367,7 +15389,7 @@
         <v>513</v>
       </c>
       <c r="B166" s="61" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C166" s="61" t="s">
         <v>1028</v>
@@ -15376,7 +15398,7 @@
         <v>1157</v>
       </c>
       <c r="E166" s="61" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F166" s="61" t="s">
         <v>1029</v>
@@ -15391,10 +15413,10 @@
         <v>496</v>
       </c>
       <c r="J166" s="61" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K166" s="61" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L166" s="61"/>
       <c r="M166" s="61" t="s">
@@ -15415,31 +15437,31 @@
         <v>513</v>
       </c>
       <c r="B167" s="60" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C167" s="60" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D167" s="60" t="s">
         <v>1413</v>
       </c>
-      <c r="D167" s="60" t="s">
+      <c r="E167" s="60" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F167" s="60" t="s">
         <v>1414</v>
       </c>
-      <c r="E167" s="60" t="s">
-        <v>1553</v>
-      </c>
-      <c r="F167" s="60" t="s">
+      <c r="G167" s="60" t="s">
         <v>1415</v>
       </c>
-      <c r="G167" s="60" t="s">
+      <c r="H167" s="60" t="s">
         <v>1416</v>
-      </c>
-      <c r="H167" s="60" t="s">
-        <v>1417</v>
       </c>
       <c r="I167" s="60" t="s">
         <v>496</v>
       </c>
       <c r="J167" s="60" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K167" s="60"/>
       <c r="L167" s="60"/>
@@ -15467,31 +15489,31 @@
         <v>513</v>
       </c>
       <c r="B168" s="60" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C168" s="60" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D168" s="60" t="s">
         <v>1419</v>
       </c>
-      <c r="D168" s="60" t="s">
+      <c r="E168" s="60" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F168" s="60" t="s">
         <v>1420</v>
       </c>
-      <c r="E168" s="60" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F168" s="60" t="s">
+      <c r="G168" s="60" t="s">
         <v>1421</v>
       </c>
-      <c r="G168" s="60" t="s">
+      <c r="H168" s="60" t="s">
         <v>1422</v>
-      </c>
-      <c r="H168" s="60" t="s">
-        <v>1423</v>
       </c>
       <c r="I168" s="60" t="s">
         <v>496</v>
       </c>
       <c r="J168" s="60" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K168" s="60"/>
       <c r="L168" s="60"/>
@@ -15519,31 +15541,31 @@
         <v>513</v>
       </c>
       <c r="B169" s="60" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C169" s="60" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D169" s="60" t="s">
         <v>1425</v>
       </c>
-      <c r="D169" s="60" t="s">
+      <c r="E169" s="60" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F169" s="60" t="s">
         <v>1426</v>
       </c>
-      <c r="E169" s="60" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F169" s="60" t="s">
+      <c r="G169" s="60" t="s">
         <v>1427</v>
       </c>
-      <c r="G169" s="60" t="s">
+      <c r="H169" s="60" t="s">
         <v>1428</v>
-      </c>
-      <c r="H169" s="60" t="s">
-        <v>1429</v>
       </c>
       <c r="I169" s="60" t="s">
         <v>496</v>
       </c>
       <c r="J169" s="60" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="K169" s="60"/>
       <c r="L169" s="60"/>
@@ -15571,31 +15593,31 @@
         <v>513</v>
       </c>
       <c r="B170" s="60" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C170" s="60" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D170" s="60" t="s">
         <v>1431</v>
       </c>
-      <c r="D170" s="60" t="s">
+      <c r="E170" s="60" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F170" s="60" t="s">
         <v>1432</v>
       </c>
-      <c r="E170" s="60" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F170" s="60" t="s">
+      <c r="G170" s="60" t="s">
         <v>1433</v>
       </c>
-      <c r="G170" s="60" t="s">
+      <c r="H170" s="60" t="s">
         <v>1434</v>
-      </c>
-      <c r="H170" s="60" t="s">
-        <v>1435</v>
       </c>
       <c r="I170" s="60" t="s">
         <v>496</v>
       </c>
       <c r="J170" s="60" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K170" s="60"/>
       <c r="L170" s="60"/>
@@ -15623,31 +15645,31 @@
         <v>513</v>
       </c>
       <c r="B171" s="60" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C171" s="60" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D171" s="60" t="s">
         <v>1437</v>
       </c>
-      <c r="D171" s="60" t="s">
+      <c r="E171" s="60" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F171" s="60" t="s">
         <v>1438</v>
       </c>
-      <c r="E171" s="60" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F171" s="60" t="s">
+      <c r="G171" s="60" t="s">
         <v>1439</v>
       </c>
-      <c r="G171" s="60" t="s">
+      <c r="H171" s="60" t="s">
         <v>1440</v>
-      </c>
-      <c r="H171" s="60" t="s">
-        <v>1441</v>
       </c>
       <c r="I171" s="60" t="s">
         <v>496</v>
       </c>
       <c r="J171" s="60" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="K171" s="60"/>
       <c r="L171" s="60"/>
@@ -15675,31 +15697,31 @@
         <v>513</v>
       </c>
       <c r="B172" s="60" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C172" s="60" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D172" s="60" t="s">
         <v>1443</v>
       </c>
-      <c r="D172" s="60" t="s">
+      <c r="E172" s="60" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F172" s="60" t="s">
         <v>1444</v>
       </c>
-      <c r="E172" s="60" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F172" s="60" t="s">
+      <c r="G172" s="60" t="s">
         <v>1445</v>
       </c>
-      <c r="G172" s="60" t="s">
+      <c r="H172" s="60" t="s">
         <v>1446</v>
-      </c>
-      <c r="H172" s="60" t="s">
-        <v>1447</v>
       </c>
       <c r="I172" s="60" t="s">
         <v>496</v>
       </c>
       <c r="J172" s="60" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="K172" s="60"/>
       <c r="L172" s="60"/>
@@ -15727,34 +15749,34 @@
         <v>513</v>
       </c>
       <c r="B173" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C173" s="59" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D173" s="59" t="s">
         <v>1449</v>
       </c>
-      <c r="D173" s="59" t="s">
+      <c r="E173" s="59" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F173" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="E173" s="59" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F173" s="59" t="s">
+      <c r="G173" s="59" t="s">
         <v>1451</v>
       </c>
-      <c r="G173" s="59" t="s">
+      <c r="H173" s="59" t="s">
         <v>1452</v>
-      </c>
-      <c r="H173" s="59" t="s">
-        <v>1453</v>
       </c>
       <c r="I173" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J173" s="59" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="K173" s="59" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="L173" s="59"/>
       <c r="M173" s="59" t="s">
@@ -15781,34 +15803,34 @@
         <v>513</v>
       </c>
       <c r="B174" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C174" s="59" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D174" s="59" t="s">
         <v>1455</v>
       </c>
-      <c r="D174" s="59" t="s">
+      <c r="E174" s="59" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F174" s="59" t="s">
         <v>1456</v>
       </c>
-      <c r="E174" s="59" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F174" s="59" t="s">
+      <c r="G174" s="59" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H174" s="59" t="s">
         <v>1457</v>
-      </c>
-      <c r="G174" s="59" t="s">
-        <v>1452</v>
-      </c>
-      <c r="H174" s="59" t="s">
-        <v>1458</v>
       </c>
       <c r="I174" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J174" s="59" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K174" s="59" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="L174" s="59"/>
       <c r="M174" s="59" t="s">
@@ -15835,34 +15857,34 @@
         <v>513</v>
       </c>
       <c r="B175" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C175" s="59" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D175" s="59" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E175" s="59" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F175" s="59" t="s">
         <v>1460</v>
-      </c>
-      <c r="D175" s="59" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E175" s="59" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F175" s="59" t="s">
-        <v>1461</v>
       </c>
       <c r="G175" s="59" t="s">
         <v>111</v>
       </c>
       <c r="H175" s="59" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I175" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J175" s="59" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="K175" s="59" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="L175" s="59"/>
       <c r="M175" s="59" t="s">
@@ -15889,31 +15911,31 @@
         <v>513</v>
       </c>
       <c r="B176" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C176" s="59" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D176" s="59" t="s">
         <v>1464</v>
       </c>
-      <c r="D176" s="59" t="s">
+      <c r="E176" s="59" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F176" s="59" t="s">
         <v>1465</v>
       </c>
-      <c r="E176" s="59" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F176" s="59" t="s">
+      <c r="G176" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H176" s="59" t="s">
         <v>1466</v>
-      </c>
-      <c r="G176" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="H176" s="59" t="s">
-        <v>1467</v>
       </c>
       <c r="I176" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J176" s="59" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="K176" s="59"/>
       <c r="L176" s="59"/>
@@ -15941,31 +15963,31 @@
         <v>513</v>
       </c>
       <c r="B177" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C177" s="59" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D177" s="59" t="s">
         <v>1469</v>
       </c>
-      <c r="D177" s="59" t="s">
+      <c r="E177" s="59" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F177" s="59" t="s">
         <v>1470</v>
       </c>
-      <c r="E177" s="59" t="s">
-        <v>1563</v>
-      </c>
-      <c r="F177" s="59" t="s">
+      <c r="G177" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H177" s="59" t="s">
         <v>1471</v>
-      </c>
-      <c r="G177" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="H177" s="59" t="s">
-        <v>1472</v>
       </c>
       <c r="I177" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J177" s="59" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="K177" s="59"/>
       <c r="L177" s="59"/>
@@ -15993,34 +16015,34 @@
         <v>513</v>
       </c>
       <c r="B178" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C178" s="59" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D178" s="59" t="s">
         <v>1474</v>
       </c>
-      <c r="D178" s="59" t="s">
+      <c r="E178" s="59" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F178" s="59" t="s">
         <v>1475</v>
       </c>
-      <c r="E178" s="59" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F178" s="59" t="s">
+      <c r="G178" s="59" t="s">
         <v>1476</v>
       </c>
-      <c r="G178" s="59" t="s">
+      <c r="H178" s="59" t="s">
         <v>1477</v>
-      </c>
-      <c r="H178" s="59" t="s">
-        <v>1478</v>
       </c>
       <c r="I178" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J178" s="59" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="K178" s="59" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="L178" s="59"/>
       <c r="M178" s="59" t="s">
@@ -16047,34 +16069,34 @@
         <v>513</v>
       </c>
       <c r="B179" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C179" s="59" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D179" s="59" t="s">
         <v>1480</v>
       </c>
-      <c r="D179" s="59" t="s">
+      <c r="E179" s="59" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F179" s="59" t="s">
         <v>1481</v>
       </c>
-      <c r="E179" s="59" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F179" s="59" t="s">
+      <c r="G179" s="59" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H179" s="59" t="s">
         <v>1482</v>
-      </c>
-      <c r="G179" s="59" t="s">
-        <v>1477</v>
-      </c>
-      <c r="H179" s="59" t="s">
-        <v>1483</v>
       </c>
       <c r="I179" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J179" s="59" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="K179" s="59" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="L179" s="59"/>
       <c r="M179" s="59" t="s">
@@ -16101,34 +16123,34 @@
         <v>513</v>
       </c>
       <c r="B180" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C180" s="59" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D180" s="59" t="s">
         <v>1485</v>
       </c>
-      <c r="D180" s="59" t="s">
+      <c r="E180" s="59" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F180" s="59" t="s">
         <v>1486</v>
-      </c>
-      <c r="E180" s="59" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F180" s="59" t="s">
-        <v>1487</v>
       </c>
       <c r="G180" s="59" t="s">
         <v>111</v>
       </c>
       <c r="H180" s="59" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I180" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J180" s="59" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="K180" s="59" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="L180" s="59"/>
       <c r="M180" s="59" t="s">
@@ -16155,34 +16177,34 @@
         <v>513</v>
       </c>
       <c r="B181" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C181" s="59" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D181" s="59" t="s">
         <v>1490</v>
       </c>
-      <c r="D181" s="59" t="s">
+      <c r="E181" s="59" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F181" s="59" t="s">
         <v>1491</v>
       </c>
-      <c r="E181" s="59" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F181" s="59" t="s">
+      <c r="G181" s="59" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H181" s="59" t="s">
         <v>1492</v>
-      </c>
-      <c r="G181" s="59" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H181" s="59" t="s">
-        <v>1493</v>
       </c>
       <c r="I181" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J181" s="59" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K181" s="59" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="L181" s="59"/>
       <c r="M181" s="59" t="s">
@@ -16209,34 +16231,34 @@
         <v>513</v>
       </c>
       <c r="B182" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C182" s="59" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D182" s="59" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E182" s="59" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F182" s="59" t="s">
         <v>1495</v>
       </c>
-      <c r="D182" s="59" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E182" s="59" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F182" s="59" t="s">
+      <c r="G182" s="59" t="s">
         <v>1496</v>
       </c>
-      <c r="G182" s="59" t="s">
+      <c r="H182" s="59" t="s">
         <v>1497</v>
-      </c>
-      <c r="H182" s="59" t="s">
-        <v>1498</v>
       </c>
       <c r="I182" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J182" s="59" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="K182" s="59" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L182" s="59"/>
       <c r="M182" s="59" t="s">
@@ -16263,34 +16285,34 @@
         <v>513</v>
       </c>
       <c r="B183" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C183" s="59" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D183" s="59" t="s">
         <v>1500</v>
       </c>
-      <c r="D183" s="59" t="s">
+      <c r="E183" s="59" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F183" s="59" t="s">
         <v>1501</v>
       </c>
-      <c r="E183" s="59" t="s">
-        <v>1568</v>
-      </c>
-      <c r="F183" s="59" t="s">
+      <c r="G183" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H183" s="59" t="s">
         <v>1502</v>
-      </c>
-      <c r="G183" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="H183" s="59" t="s">
-        <v>1503</v>
       </c>
       <c r="I183" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J183" s="59" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="K183" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L183" s="59"/>
       <c r="M183" s="59" t="s">
@@ -16317,34 +16339,34 @@
         <v>513</v>
       </c>
       <c r="B184" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C184" s="59" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D184" s="59" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E184" s="59" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F184" s="59" t="s">
         <v>1505</v>
       </c>
-      <c r="D184" s="59" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E184" s="59" t="s">
-        <v>1572</v>
-      </c>
-      <c r="F184" s="59" t="s">
+      <c r="G184" s="59" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H184" s="59" t="s">
         <v>1506</v>
-      </c>
-      <c r="G184" s="59" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H184" s="59" t="s">
-        <v>1507</v>
       </c>
       <c r="I184" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J184" s="59" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="K184" s="59" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L184" s="59"/>
       <c r="M184" s="59" t="s">
@@ -16371,34 +16393,34 @@
         <v>513</v>
       </c>
       <c r="B185" s="59" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C185" s="59" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D185" s="59" t="s">
         <v>1509</v>
       </c>
-      <c r="D185" s="59" t="s">
+      <c r="E185" s="59" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F185" s="59" t="s">
         <v>1510</v>
-      </c>
-      <c r="E185" s="59" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F185" s="59" t="s">
-        <v>1511</v>
       </c>
       <c r="G185" s="59" t="s">
         <v>111</v>
       </c>
       <c r="H185" s="59" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I185" s="59" t="s">
         <v>496</v>
       </c>
       <c r="J185" s="59" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="K185" s="59" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="L185" s="59"/>
       <c r="M185" s="59" t="s">
@@ -16425,7 +16447,7 @@
         <v>513</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>352</v>
@@ -16464,22 +16486,22 @@
         <v>889</v>
       </c>
       <c r="S186" s="49" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="T186" s="45" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="U186" s="46">
         <v>1</v>
       </c>
       <c r="V186" s="45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W186" s="52" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X186" s="49" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16487,7 +16509,7 @@
         <v>513</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C187" s="27" t="s">
         <v>353</v>
@@ -16526,22 +16548,22 @@
         <v>889</v>
       </c>
       <c r="S187" s="49" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="T187" s="45" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="U187" s="46">
         <v>2</v>
       </c>
       <c r="V187" s="45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W187" s="52" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X187" s="49" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16549,7 +16571,7 @@
         <v>513</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C188" s="27" t="s">
         <v>354</v>
@@ -16596,7 +16618,7 @@
         <v>513</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C189" s="27" t="s">
         <v>355</v>
@@ -16637,7 +16659,7 @@
         <v>513</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C190" s="27" t="s">
         <v>356</v>
@@ -16679,22 +16701,22 @@
         <v>889</v>
       </c>
       <c r="S190" s="49" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="T190" s="45" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="U190" s="46">
         <v>3</v>
       </c>
       <c r="V190" s="45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W190" s="52" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X190" s="49" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="191" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16702,7 +16724,7 @@
         <v>513</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C191" s="27" t="s">
         <v>357</v>
@@ -16749,13 +16771,13 @@
         <v>513</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E192" s="27" t="s">
         <v>774</v>
@@ -16794,22 +16816,22 @@
         <v>889</v>
       </c>
       <c r="S192" s="49" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="T192" s="45" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="U192" s="46">
         <v>1</v>
       </c>
       <c r="V192" s="45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W192" s="52" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X192" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16817,19 +16839,19 @@
         <v>513</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C193" s="27" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E193" s="27" t="s">
         <v>461</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G193" s="27" t="s">
         <v>383</v>
@@ -16841,7 +16863,7 @@
         <v>501</v>
       </c>
       <c r="J193" s="27" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="K193" s="27" t="s">
         <v>785</v>
@@ -16862,22 +16884,22 @@
         <v>889</v>
       </c>
       <c r="S193" s="49" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="T193" s="45" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="U193" s="46">
         <v>2</v>
       </c>
       <c r="V193" s="45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W193" s="52" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X193" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16885,13 +16907,13 @@
         <v>513</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C194" s="27" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D194" s="27" t="s">
         <v>1627</v>
-      </c>
-      <c r="D194" s="27" t="s">
-        <v>1628</v>
       </c>
       <c r="E194" s="27" t="s">
         <v>461</v>
@@ -16909,7 +16931,7 @@
         <v>501</v>
       </c>
       <c r="J194" s="27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="K194" s="27" t="s">
         <v>779</v>
@@ -16930,22 +16952,22 @@
         <v>889</v>
       </c>
       <c r="S194" s="49" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="T194" s="45" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="U194" s="46">
         <v>3</v>
       </c>
       <c r="V194" s="45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="W194" s="52" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X194" s="52" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="195" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16953,7 +16975,7 @@
         <v>513</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C195" s="27" t="s">
         <v>386</v>
@@ -16997,7 +17019,7 @@
         <v>513</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C196" s="27" t="s">
         <v>358</v>
@@ -17041,7 +17063,7 @@
         <v>513</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C197" s="27" t="s">
         <v>387</v>
@@ -17085,7 +17107,7 @@
         <v>513</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C198" s="27" t="s">
         <v>388</v>
@@ -17121,22 +17143,22 @@
         <v>889</v>
       </c>
       <c r="S198" s="45" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T198" s="50" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="U198" s="70">
         <v>1</v>
       </c>
       <c r="V198" s="50" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="W198" s="71" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="X198" s="71" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17144,7 +17166,7 @@
         <v>513</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C199" s="27" t="s">
         <v>391</v>
@@ -17171,7 +17193,7 @@
         <v>349</v>
       </c>
       <c r="K199" s="27" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="M199" s="27" t="s">
         <v>82</v>
@@ -17189,22 +17211,22 @@
         <v>889</v>
       </c>
       <c r="S199" s="45" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T199" s="50" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="U199" s="70">
         <v>2</v>
       </c>
       <c r="V199" s="50" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="W199" s="71" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="X199" s="71" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17212,7 +17234,7 @@
         <v>513</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C200" s="27" t="s">
         <v>392</v>
@@ -17257,22 +17279,22 @@
         <v>889</v>
       </c>
       <c r="S200" s="45" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T200" s="50" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="U200" s="70">
         <v>3</v>
       </c>
       <c r="V200" s="50" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="W200" s="71" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="X200" s="71" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17280,7 +17302,7 @@
         <v>513</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C201" s="27" t="s">
         <v>393</v>
@@ -17319,22 +17341,22 @@
         <v>889</v>
       </c>
       <c r="S201" s="45" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T201" s="50" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="U201" s="70">
         <v>1</v>
       </c>
       <c r="V201" s="50" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="W201" s="71" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="X201" s="71" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="202" spans="1:24" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -17342,34 +17364,34 @@
         <v>513</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C202" s="53" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D202" s="53" t="s">
         <v>1580</v>
       </c>
-      <c r="D202" s="53" t="s">
+      <c r="E202" s="53" t="s">
         <v>1581</v>
       </c>
-      <c r="E202" s="53" t="s">
+      <c r="F202" s="53" t="s">
         <v>1582</v>
       </c>
-      <c r="F202" s="53" t="s">
-        <v>1583</v>
-      </c>
       <c r="G202" s="53" t="s">
         <v>82</v>
       </c>
       <c r="H202" s="53" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I202" s="53" t="s">
         <v>501</v>
       </c>
       <c r="J202" s="53" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="K202" s="53" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L202" s="53"/>
       <c r="M202" s="53" t="s">
@@ -17396,16 +17418,16 @@
         <v>513</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C203" s="53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D203" s="53" t="s">
         <v>1585</v>
       </c>
-      <c r="D203" s="53" t="s">
+      <c r="E203" s="53" t="s">
         <v>1586</v>
-      </c>
-      <c r="E203" s="53" t="s">
-        <v>1587</v>
       </c>
       <c r="F203" s="53" t="s">
         <v>395</v>
@@ -17420,10 +17442,10 @@
         <v>501</v>
       </c>
       <c r="J203" s="53" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K203" s="53" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L203" s="53"/>
       <c r="M203" s="53" t="s">
@@ -17439,22 +17461,22 @@
         <v>889</v>
       </c>
       <c r="S203" s="45" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="T203" s="50" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="U203" s="70">
         <v>2</v>
       </c>
       <c r="V203" s="50" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="W203" s="50" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="X203" s="50" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17462,7 +17484,7 @@
         <v>513</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C204" s="27" t="s">
         <v>403</v>
@@ -17506,7 +17528,7 @@
         <v>513</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C205" s="27" t="s">
         <v>404</v>
@@ -17545,22 +17567,22 @@
         <v>889</v>
       </c>
       <c r="S205" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="T205" s="45" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="U205" s="46">
         <v>1</v>
       </c>
       <c r="V205" s="45" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W205" s="45" t="s">
         <v>1593</v>
       </c>
-      <c r="W205" s="45" t="s">
-        <v>1594</v>
-      </c>
       <c r="X205" s="49" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="206" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17568,13 +17590,13 @@
         <v>513</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C206" s="31" t="s">
         <v>405</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E206" s="27" t="s">
         <v>784</v>
@@ -17592,7 +17614,7 @@
         <v>500</v>
       </c>
       <c r="J206" s="27" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="M206" s="27" t="s">
         <v>82</v>
@@ -17601,7 +17623,7 @@
         <v>6</v>
       </c>
       <c r="P206" s="27" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Q206" s="27">
         <v>1</v>
@@ -17610,22 +17632,22 @@
         <v>889</v>
       </c>
       <c r="S206" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="T206" s="45" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="U206" s="46">
         <v>2</v>
       </c>
       <c r="V206" s="45" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W206" s="45" t="s">
         <v>1593</v>
       </c>
-      <c r="W206" s="45" t="s">
-        <v>1594</v>
-      </c>
       <c r="X206" s="49" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17633,13 +17655,13 @@
         <v>513</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C207" s="31" t="s">
         <v>406</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E207" s="27" t="s">
         <v>784</v>
@@ -17657,7 +17679,7 @@
         <v>500</v>
       </c>
       <c r="J207" s="27" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="M207" s="27" t="s">
         <v>82</v>
@@ -17675,22 +17697,22 @@
         <v>889</v>
       </c>
       <c r="S207" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="T207" s="45" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="U207" s="46">
         <v>3</v>
       </c>
       <c r="V207" s="45" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W207" s="45" t="s">
         <v>1593</v>
       </c>
-      <c r="W207" s="45" t="s">
-        <v>1594</v>
-      </c>
       <c r="X207" s="49" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17698,10 +17720,10 @@
         <v>513</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D208" s="27" t="s">
         <v>1021</v>
@@ -17722,7 +17744,7 @@
         <v>500</v>
       </c>
       <c r="J208" s="27" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K208" s="27" t="s">
         <v>776</v>
@@ -17743,22 +17765,22 @@
         <v>889</v>
       </c>
       <c r="S208" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="T208" s="45" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="U208" s="70">
         <v>1</v>
       </c>
       <c r="V208" s="50" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W208" s="50" t="s">
         <v>1593</v>
       </c>
-      <c r="W208" s="50" t="s">
-        <v>1594</v>
-      </c>
       <c r="X208" s="71" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17766,10 +17788,10 @@
         <v>513</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D209" s="27" t="s">
         <v>1021</v>
@@ -17790,7 +17812,7 @@
         <v>500</v>
       </c>
       <c r="J209" s="27" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="K209" s="27" t="s">
         <v>785</v>
@@ -17811,22 +17833,22 @@
         <v>889</v>
       </c>
       <c r="S209" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="T209" s="45" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="U209" s="70">
         <v>1</v>
       </c>
       <c r="V209" s="50" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W209" s="50" t="s">
         <v>1593</v>
       </c>
-      <c r="W209" s="50" t="s">
-        <v>1594</v>
-      </c>
       <c r="X209" s="71" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17834,10 +17856,10 @@
         <v>513</v>
       </c>
       <c r="B210" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C210" s="31" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D210" s="27" t="s">
         <v>1021</v>
@@ -17858,7 +17880,7 @@
         <v>500</v>
       </c>
       <c r="J210" s="27" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="K210" s="27" t="s">
         <v>779</v>
@@ -17879,22 +17901,22 @@
         <v>889</v>
       </c>
       <c r="S210" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="T210" s="45" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="U210" s="70">
         <v>1</v>
       </c>
       <c r="V210" s="50" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W210" s="50" t="s">
         <v>1593</v>
       </c>
-      <c r="W210" s="50" t="s">
-        <v>1594</v>
-      </c>
       <c r="X210" s="71" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="211" spans="1:24" s="31" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17902,7 +17924,7 @@
         <v>513</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C211" s="31" t="s">
         <v>1088</v>
@@ -17938,7 +17960,7 @@
         <v>6</v>
       </c>
       <c r="P211" s="31" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q211" s="31">
         <v>1</v>
@@ -17958,7 +17980,7 @@
         <v>513</v>
       </c>
       <c r="B212" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C212" s="27" t="s">
         <v>949</v>
@@ -17997,22 +18019,22 @@
         <v>889</v>
       </c>
       <c r="S212" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="T212" s="45" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="U212" s="46">
         <v>4</v>
       </c>
       <c r="V212" s="45" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W212" s="45" t="s">
         <v>1593</v>
       </c>
-      <c r="W212" s="45" t="s">
-        <v>1594</v>
-      </c>
       <c r="X212" s="49" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18020,7 +18042,7 @@
         <v>513</v>
       </c>
       <c r="B213" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C213" s="27" t="s">
         <v>955</v>
@@ -18032,7 +18054,7 @@
         <v>957</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G213" s="27" t="s">
         <v>958</v>
@@ -18047,7 +18069,7 @@
         <v>959</v>
       </c>
       <c r="K213" s="27" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="M213" s="27" t="s">
         <v>82</v>
@@ -18059,22 +18081,22 @@
         <v>889</v>
       </c>
       <c r="S213" s="49" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="T213" s="45" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="U213" s="46">
         <v>5</v>
       </c>
       <c r="V213" s="45" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W213" s="45" t="s">
         <v>1593</v>
       </c>
-      <c r="W213" s="45" t="s">
-        <v>1594</v>
-      </c>
       <c r="X213" s="49" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18082,7 +18104,7 @@
         <v>513</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C214" s="27" t="s">
         <v>407</v>
@@ -18126,7 +18148,7 @@
         <v>513</v>
       </c>
       <c r="B215" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C215" s="27" t="s">
         <v>1009</v>
@@ -18165,22 +18187,22 @@
         <v>889</v>
       </c>
       <c r="S215" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T215" s="45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="U215" s="46">
         <v>1</v>
       </c>
       <c r="V215" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W215" s="52" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="X215" s="50" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18188,7 +18210,7 @@
         <v>513</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C216" s="27" t="s">
         <v>408</v>
@@ -18229,7 +18251,7 @@
         <v>513</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C217" s="27" t="s">
         <v>1010</v>
@@ -18270,7 +18292,7 @@
         <v>513</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C218" s="27" t="s">
         <v>1121</v>
@@ -18279,16 +18301,16 @@
         <v>881</v>
       </c>
       <c r="E218" s="28" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G218" s="27" t="s">
         <v>416</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I218" s="27" t="s">
         <v>500</v>
@@ -18303,7 +18325,7 @@
         <v>6</v>
       </c>
       <c r="P218" s="27" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q218" s="27">
         <v>1</v>
@@ -18312,22 +18334,22 @@
         <v>889</v>
       </c>
       <c r="S218" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T218" s="45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="U218" s="46">
         <v>2</v>
       </c>
       <c r="V218" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W218" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X218" s="50" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18335,7 +18357,7 @@
         <v>513</v>
       </c>
       <c r="B219" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C219" s="27" t="s">
         <v>1011</v>
@@ -18344,16 +18366,16 @@
         <v>881</v>
       </c>
       <c r="E219" s="28" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G219" s="27" t="s">
         <v>416</v>
       </c>
       <c r="H219" s="27" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I219" s="27" t="s">
         <v>500</v>
@@ -18377,31 +18399,31 @@
         <v>513</v>
       </c>
       <c r="B220" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C220" s="31" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D220" s="27" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E220" s="28" t="s">
         <v>1621</v>
       </c>
-      <c r="E220" s="28" t="s">
-        <v>1622</v>
-      </c>
       <c r="F220" s="27" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G220" s="27" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H220" s="27" t="s">
         <v>1643</v>
-      </c>
-      <c r="G220" s="27" t="s">
-        <v>1639</v>
-      </c>
-      <c r="H220" s="27" t="s">
-        <v>1644</v>
       </c>
       <c r="I220" s="27" t="s">
         <v>500</v>
       </c>
       <c r="J220" s="27" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="K220" s="27" t="s">
         <v>778</v>
@@ -18416,22 +18438,22 @@
         <v>889</v>
       </c>
       <c r="S220" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T220" s="45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="U220" s="46">
         <v>3</v>
       </c>
       <c r="V220" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W220" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X220" s="71" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18439,31 +18461,31 @@
         <v>513</v>
       </c>
       <c r="B221" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C221" s="31" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D221" s="27" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E221" s="28" t="s">
         <v>1621</v>
       </c>
-      <c r="E221" s="28" t="s">
-        <v>1622</v>
-      </c>
       <c r="F221" s="27" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G221" s="27" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H221" s="27" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I221" s="27" t="s">
         <v>500</v>
       </c>
       <c r="J221" s="27" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="K221" s="27" t="s">
         <v>785</v>
@@ -18478,22 +18500,22 @@
         <v>889</v>
       </c>
       <c r="S221" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T221" s="45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="U221" s="46">
         <v>4</v>
       </c>
       <c r="V221" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W221" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X221" s="71" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18501,31 +18523,31 @@
         <v>513</v>
       </c>
       <c r="B222" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C222" s="31" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D222" s="27" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E222" s="28" t="s">
         <v>1621</v>
       </c>
-      <c r="E222" s="28" t="s">
-        <v>1622</v>
-      </c>
       <c r="F222" s="27" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G222" s="27" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H222" s="27" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I222" s="27" t="s">
         <v>500</v>
       </c>
       <c r="J222" s="27" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="K222" s="27" t="s">
         <v>779</v>
@@ -18540,22 +18562,22 @@
         <v>889</v>
       </c>
       <c r="S222" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T222" s="45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="U222" s="46">
         <v>5</v>
       </c>
       <c r="V222" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W222" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X222" s="71" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18563,13 +18585,13 @@
         <v>513</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C223" s="27" t="s">
         <v>960</v>
       </c>
       <c r="D223" s="27" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E223" s="27" t="s">
         <v>961</v>
@@ -18608,13 +18630,13 @@
         <v>513</v>
       </c>
       <c r="B224" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C224" s="27" t="s">
         <v>965</v>
       </c>
       <c r="D224" s="27" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E224" s="27" t="s">
         <v>961</v>
@@ -18647,22 +18669,22 @@
         <v>889</v>
       </c>
       <c r="S224" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T224" s="48" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="U224" s="46">
         <v>1</v>
       </c>
       <c r="V224" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W224" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X224" s="50" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="225" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18670,13 +18692,13 @@
         <v>513</v>
       </c>
       <c r="B225" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C225" s="27" t="s">
         <v>969</v>
       </c>
       <c r="D225" s="27" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E225" s="27" t="s">
         <v>961</v>
@@ -18706,22 +18728,22 @@
         <v>889</v>
       </c>
       <c r="S225" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T225" s="48" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="U225" s="46">
         <v>2</v>
       </c>
       <c r="V225" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W225" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X225" s="50" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18729,13 +18751,13 @@
         <v>513</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C226" s="27" t="s">
         <v>974</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E226" s="27" t="s">
         <v>961</v>
@@ -18765,22 +18787,22 @@
         <v>889</v>
       </c>
       <c r="S226" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T226" s="48" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="U226" s="46">
         <v>3</v>
       </c>
       <c r="V226" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W226" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X226" s="50" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18788,13 +18810,13 @@
         <v>513</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C227" s="27" t="s">
         <v>977</v>
       </c>
       <c r="D227" s="27" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E227" s="27" t="s">
         <v>978</v>
@@ -18833,13 +18855,13 @@
         <v>513</v>
       </c>
       <c r="B228" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C228" s="27" t="s">
         <v>982</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E228" s="27" t="s">
         <v>978</v>
@@ -18872,22 +18894,22 @@
         <v>889</v>
       </c>
       <c r="S228" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T228" s="48" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="U228" s="46">
         <v>1</v>
       </c>
       <c r="V228" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W228" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X228" s="50" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="229" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18895,13 +18917,13 @@
         <v>513</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C229" s="27" t="s">
         <v>986</v>
       </c>
       <c r="D229" s="27" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E229" s="27" t="s">
         <v>978</v>
@@ -18931,22 +18953,22 @@
         <v>889</v>
       </c>
       <c r="S229" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T229" s="48" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="U229" s="46">
         <v>2</v>
       </c>
       <c r="V229" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W229" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X229" s="50" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="230" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18954,13 +18976,13 @@
         <v>513</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C230" s="27" t="s">
         <v>989</v>
       </c>
       <c r="D230" s="27" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E230" s="27" t="s">
         <v>978</v>
@@ -18990,22 +19012,22 @@
         <v>889</v>
       </c>
       <c r="S230" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T230" s="48" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="U230" s="46">
         <v>3</v>
       </c>
       <c r="V230" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W230" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X230" s="50" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="231" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19013,7 +19035,7 @@
         <v>513</v>
       </c>
       <c r="B231" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C231" s="27" t="s">
         <v>992</v>
@@ -19028,10 +19050,10 @@
         <v>995</v>
       </c>
       <c r="G231" s="27" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H231" s="27" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I231" s="27" t="s">
         <v>500</v>
@@ -19058,7 +19080,7 @@
         <v>513</v>
       </c>
       <c r="B232" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C232" s="27" t="s">
         <v>997</v>
@@ -19073,10 +19095,10 @@
         <v>998</v>
       </c>
       <c r="G232" s="27" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H232" s="27" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I232" s="27" t="s">
         <v>500</v>
@@ -19097,22 +19119,22 @@
         <v>889</v>
       </c>
       <c r="S232" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T232" s="48" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="U232" s="46">
         <v>1</v>
       </c>
       <c r="V232" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W232" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X232" s="50" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="233" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19120,7 +19142,7 @@
         <v>513</v>
       </c>
       <c r="B233" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C233" s="27" t="s">
         <v>1000</v>
@@ -19135,10 +19157,10 @@
         <v>1001</v>
       </c>
       <c r="G233" s="27" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H233" s="27" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I233" s="27" t="s">
         <v>500</v>
@@ -19156,22 +19178,22 @@
         <v>889</v>
       </c>
       <c r="S233" s="49" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T233" s="48" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="U233" s="46">
         <v>2</v>
       </c>
       <c r="V233" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="W233" s="52" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="X233" s="50" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="234" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19179,7 +19201,7 @@
         <v>513</v>
       </c>
       <c r="B234" s="27" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C234" s="27" t="s">
         <v>1003</v>
@@ -19194,10 +19216,10 @@
         <v>1004</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H234" s="27" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I234" s="27" t="s">
         <v>500</v>
@@ -19262,19 +19284,19 @@
         <v>421</v>
       </c>
       <c r="T235" s="48" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="U235" s="46">
         <v>1</v>
       </c>
       <c r="V235" s="45" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="W235" s="52" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="X235" s="52" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="236" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19297,7 +19319,7 @@
         <v>730</v>
       </c>
       <c r="G236" s="27" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H236" s="27" t="s">
         <v>644</v>
@@ -19327,19 +19349,19 @@
         <v>421</v>
       </c>
       <c r="T236" s="48" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="U236" s="46">
         <v>2</v>
       </c>
       <c r="V236" s="45" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="W236" s="52" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="X236" s="52" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="237" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19350,10 +19372,10 @@
         <v>421</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E237" s="27" t="s">
         <v>462</v>
@@ -19371,7 +19393,7 @@
         <v>500</v>
       </c>
       <c r="J237" s="27" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="M237" s="27" t="s">
         <v>82</v>
@@ -19386,19 +19408,19 @@
         <v>421</v>
       </c>
       <c r="T237" s="48" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="U237" s="46">
         <v>3</v>
       </c>
       <c r="V237" s="45" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="W237" s="52" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="X237" s="52" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19406,7 +19428,7 @@
         <v>513</v>
       </c>
       <c r="B238" s="27" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C238" s="27" t="s">
         <v>426</v>
@@ -19445,22 +19467,22 @@
         <v>892</v>
       </c>
       <c r="S238" s="45" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="T238" s="48" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="U238" s="46">
         <v>1</v>
       </c>
       <c r="V238" s="52" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="W238" s="52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="X238" s="52" t="s">
         <v>1683</v>
-      </c>
-      <c r="X238" s="52" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19468,7 +19490,7 @@
         <v>513</v>
       </c>
       <c r="B239" s="27" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C239" s="27" t="s">
         <v>508</v>
@@ -19507,22 +19529,22 @@
         <v>892</v>
       </c>
       <c r="S239" s="45" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="T239" s="48" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="U239" s="46">
         <v>2</v>
       </c>
       <c r="V239" s="52" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="W239" s="52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="X239" s="52" t="s">
         <v>1683</v>
-      </c>
-      <c r="X239" s="52" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19530,7 +19552,7 @@
         <v>513</v>
       </c>
       <c r="B240" s="27" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C240" s="27" t="s">
         <v>509</v>
@@ -19569,22 +19591,22 @@
         <v>892</v>
       </c>
       <c r="S240" s="45" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="T240" s="48" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="U240" s="46">
         <v>3</v>
       </c>
       <c r="V240" s="52" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="W240" s="52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="X240" s="52" t="s">
         <v>1683</v>
-      </c>
-      <c r="X240" s="52" t="s">
-        <v>1684</v>
       </c>
     </row>
   </sheetData>
@@ -19596,13 +19618,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1E54B1-94C7-420D-B742-577FC698418F}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19687,10 +19709,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>1142</v>
@@ -19723,13 +19745,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>1296</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>1297</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
@@ -19747,7 +19769,7 @@
         <v>535</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -19761,7 +19783,7 @@
         <v>537</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -19776,7 +19798,7 @@
         <v>539</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="39" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -19784,13 +19806,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>1731</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -20034,13 +20056,13 @@
         <v>337</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>788</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -20108,7 +20130,7 @@
         <v>553</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="38"/>
@@ -20217,7 +20239,7 @@
         <v>561</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="38"/>
@@ -20231,13 +20253,13 @@
         <v>396</v>
       </c>
       <c r="B39" s="79" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D39" s="81" t="s">
         <v>1632</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D39" s="81" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -20245,13 +20267,13 @@
         <v>396</v>
       </c>
       <c r="B40" s="79" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D40" s="82" t="s">
         <v>1637</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -20307,7 +20329,7 @@
         <v>565</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -20318,7 +20340,7 @@
         <v>566</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>578</v>
@@ -20392,6 +20414,20 @@
       </c>
       <c r="D50" s="15" t="s">
         <v>948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D51" s="83" t="s">
+        <v>1735</v>
       </c>
     </row>
   </sheetData>

--- a/STEPS_data_analysis/data_input/ISO_input_matrix.xlsx
+++ b/STEPS_data_analysis/data_input/ISO_input_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/cowanm_who_int/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D3B2EA46-1EFA-E94C-BBF0-820DB492552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FA40B56-98E5-4373-AC9B-041F7DB8B722}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D3B2EA46-1EFA-E94C-BBF0-820DB492552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC5839C-BA97-4909-81E2-8EB9F215B6F5}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1545" windowWidth="25935" windowHeight="14655" activeTab="1" xr2:uid="{56236E1D-2702-4F2C-A185-C8269303025C}"/>
+    <workbookView xWindow="30090" yWindow="105" windowWidth="25935" windowHeight="14655" activeTab="1" xr2:uid="{56236E1D-2702-4F2C-A185-C8269303025C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -6140,16 +6140,15 @@
   </si>
   <si>
     <t>data &lt;- data %&gt;%
-    mutate(screenpos = ifelse(mh1 == 1 | mh2 == 1, 1, 2)) %&gt;%
+  mutate(screenpos = ifelse(mh1 == 1 | mh2 == 1, 1, 2)) %&gt;%
   mutate(mh6 = ifelse(mh5 == 1, NA, mh6)) %&gt;%
   rowwise() %&gt;%
   mutate(symptomcount = sum(c_across(c(mh1, mh2, mh4, mh5, mh6, mh7, mh8, mh9, mh10, mh11, mh12)) == 1, na.rm = TRUE)) %&gt;%
   ungroup() %&gt;%
   mutate(deprepisode = 2) %&gt;%
   mutate(deprepisode = ifelse(screenpos==1 &amp; symptomcount &gt;= 5 &amp; symptomcount &lt;= 10 &amp; mh13&lt;4, 1, deprepisode)) %&gt;%
-  mutate(deprepisode = ifelse(deprepisode==1 &amp; (
-    replace_na(mh1 == 88, TRUE) |
-    replace_na(mh2 == 88, TRUE) |
+  mutate(deprepisode = ifelse(replace_na(mh1 == 88, TRUE) |
+    replace_na(mh2 == 88, TRUE) | (screenpos==1 &amp; (
     replace_na(mh4 == 88, TRUE) |
     replace_na(mh5 == 88, TRUE) |
     replace_na(mh5 == 2 &amp; mh6 == 88, TRUE) |
@@ -6159,7 +6158,7 @@
     replace_na(mh10 == 88, TRUE) |
     replace_na(mh11 == 88, TRUE) |
     replace_na(mh12 == 88, TRUE) |
-    replace_na(mh13 == 88, TRUE)),
+    replace_na(mh13 == 88, TRUE))),
     NA,
     deprepisode
   ))</t>
@@ -6614,6 +6613,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
